--- a/MainTop/12.12.2025 Таня ВБ/спрос_12-12-2025 Таня Мес с 12-11-2025 по 12-12-2025_sorted_colored_updated.xlsx
+++ b/MainTop/12.12.2025 Таня ВБ/спрос_12-12-2025 Таня Мес с 12-11-2025 по 12-12-2025_sorted_colored_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\12.12.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\12.12.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE834694-8BC8-4E09-A77D-E3B55018C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71DF22-3498-456E-999E-40404EA8713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,15 +822,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1834,5 +1835,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>